--- a/__repository/template_export/template-export-mastercr.xlsx
+++ b/__repository/template_export/template-export-mastercr.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>POIN v2</t>
   </si>
@@ -33,16 +33,92 @@
   </si>
   <si>
     <t>REPORT MASTER CR</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>CR No Nokia</t>
+  </si>
+  <si>
+    <t>CR No Indosat</t>
+  </si>
+  <si>
+    <t>CR Status</t>
+  </si>
+  <si>
+    <t>Phase Code</t>
+  </si>
+  <si>
+    <t>Phase Year</t>
+  </si>
+  <si>
+    <t>Phase Name</t>
+  </si>
+  <si>
+    <t>NODIN</t>
+  </si>
+  <si>
+    <t>CR Position</t>
+  </si>
+  <si>
+    <t>CR PIC</t>
+  </si>
+  <si>
+    <t>CR Submit</t>
+  </si>
+  <si>
+    <t>CR Approved</t>
+  </si>
+  <si>
+    <t>PO Received</t>
+  </si>
+  <si>
+    <t>CR Currency</t>
+  </si>
+  <si>
+    <t>Value Before</t>
+  </si>
+  <si>
+    <t>Value After</t>
+  </si>
+  <si>
+    <t>Value Delta</t>
+  </si>
+  <si>
+    <t>CR Type</t>
+  </si>
+  <si>
+    <t>Value Add</t>
+  </si>
+  <si>
+    <t>Value Red</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Update By</t>
+  </si>
+  <si>
+    <t>Update Date</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +138,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,10 +181,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -105,8 +197,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -385,21 +482,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="17" width="12.7109375" style="7" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="19" max="20" width="12.7109375" style="7" customWidth="1"/>
+    <col min="21" max="25" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -407,9 +515,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
+    </row>
+    <row r="5" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
